--- a/patternGen/PROTO2.xlsx
+++ b/patternGen/PROTO2.xlsx
@@ -62,8 +62,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -76,15 +78,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -447,61 +451,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -542,16 +546,16 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -580,28 +584,28 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -610,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -678,15 +682,77 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>1</v>
       </c>
     </row>
